--- a/Pesos ASCOM.xlsx
+++ b/Pesos ASCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.silva\Desktop\R LOCAL\00.EXPERIMENTOS\01.SHAREPOINT DASHBOARD\SHINY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7917E24-8359-41C5-8700-BA660CDC34A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CBFF3-448D-40F4-A779-3C0BE718AAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +279,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,6 +396,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,7 +1400,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1434,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="25">
@@ -1531,5 +1538,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>